--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,33 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>3 Errores y 1 Warning</t>
+  </si>
+  <si>
+    <t>No se puede Probar por que no compila</t>
+  </si>
+  <si>
+    <t>La longitudes a validar son 13 y 19</t>
+  </si>
+  <si>
+    <t>El Mod_10 no es validacion de longitud</t>
+  </si>
+  <si>
+    <t>No esta la Mejora sugerida</t>
+  </si>
+  <si>
+    <t>Se usa el DA como una entidad</t>
+  </si>
+  <si>
+    <t>No hay Controlador</t>
+  </si>
+  <si>
+    <t>El tipo de proyecto es Incorrecto</t>
+  </si>
+  <si>
+    <t>Hay Un Controladore innecesario (HoimeController)</t>
   </si>
 </sst>
 </file>
@@ -633,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +673,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +702,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +724,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +784,15 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +818,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -827,17 +860,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +903,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -930,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +975,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +994,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -985,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -996,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1009,8 +1042,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1065,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1084,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1105,10 +1147,13 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1165,18 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1136,10 +1184,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1250,18 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1218,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1229,15 +1280,15 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1256,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1267,10 +1318,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1336,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,36 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>6 Errores</t>
+  </si>
+  <si>
+    <t>No se Pueder ejecutar por que no compila</t>
+  </si>
+  <si>
+    <t>El Else Es Innecesario</t>
+  </si>
+  <si>
+    <t>La Clase No es Estatica</t>
+  </si>
+  <si>
+    <t>Los Nombres de las Constantes No son Adecuadas</t>
+  </si>
+  <si>
+    <t>La Longitudes son Incorrectas</t>
+  </si>
+  <si>
+    <t>No se Implemento la Mejora</t>
+  </si>
+  <si>
+    <t>Tiene el Error de que Retorna un List y Deberias ser un Ilist</t>
+  </si>
+  <si>
+    <t>No se Eliminaron datos Innecesarios (WeatherControler)</t>
+  </si>
+  <si>
+    <t>No se Completo el Controlador</t>
   </si>
 </sst>
 </file>
@@ -633,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +676,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +705,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +727,26 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -718,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -729,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +787,15 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +821,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -812,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -824,20 +860,20 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f>SUM(D18:D28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +906,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -919,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -927,10 +963,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +981,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -958,15 +997,18 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1016,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -985,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -996,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1074,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1093,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1072,10 +1123,13 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1174,18 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1136,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1147,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1158,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1169,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1259,15 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1229,15 +1286,15 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1245,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1256,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1267,10 +1324,13 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1342,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Exams/Exam-01/Revision-Examen-01.xlsx
+++ b/Exams/Exam-01/Revision-Examen-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Layer/Functionality</t>
   </si>
@@ -206,6 +206,48 @@
   </si>
   <si>
     <t>Inclusin de version en la Ruta</t>
+  </si>
+  <si>
+    <t>8 Warnings</t>
+  </si>
+  <si>
+    <t>El Proyecto por defecto no es la API</t>
+  </si>
+  <si>
+    <t>Usuario de conexión Incorrecto</t>
+  </si>
+  <si>
+    <t>No Consulta</t>
+  </si>
+  <si>
+    <t>Falla la Consulta y la Logica de IsNull esta Invertida</t>
+  </si>
+  <si>
+    <t>Falla la ejecucion</t>
+  </si>
+  <si>
+    <t>La Consulta deberia ser in FirstOrDefault y no un Where.ToList</t>
+  </si>
+  <si>
+    <t>No debe retornar una Lista</t>
+  </si>
+  <si>
+    <t>El Parametro y la Ruta son diferentes (CamelCase)</t>
+  </si>
+  <si>
+    <t>El Mensaje de Requerido Deberia Incluir el No9mbre del Campo Requerido</t>
+  </si>
+  <si>
+    <t>La condicion esta Invertida para IsNotNull</t>
+  </si>
+  <si>
+    <t>Los Valores Min y Max son 13 y 19 Respectivamente</t>
+  </si>
+  <si>
+    <t>No Existe la Constante</t>
+  </si>
+  <si>
+    <t>No se Implemento la mejora Sugerida</t>
   </si>
 </sst>
 </file>
@@ -633,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -646,7 +688,7 @@
     <col min="4" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -663,7 +705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -675,10 +717,10 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11">
         <f>SUM(D3:D12)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -689,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -697,20 +739,29 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -721,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -732,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -740,10 +791,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,15 +805,18 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -767,10 +824,13 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
@@ -785,12 +845,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -801,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -811,8 +871,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -824,20 +887,20 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f>SUM(D18:D28)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -848,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -859,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -870,12 +933,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -886,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -897,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -916,10 +979,13 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -927,10 +993,13 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -942,15 +1011,15 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14">
         <f>SUM(D30:D46)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -961,12 +1030,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -974,10 +1043,13 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1007,10 +1079,13 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1018,10 +1093,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1029,15 +1107,18 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1045,15 +1126,18 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1064,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1086,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1094,10 +1178,13 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1120,15 +1207,15 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15">
         <f>SUM(D48:D62)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -1180,10 +1267,13 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -1191,10 +1281,13 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -1202,15 +1295,18 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -1221,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1232,12 +1328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1270,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="21" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>58</v>
       </c>
@@ -1282,7 +1378,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8">
         <f>SUM(E2:E47)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
